--- a/municipal/ტრანსპორტი და დასაწყობება/საერთო სარგებლობის საავტომობილო გზების სიგრძე/ქვემო ქართლი/წალკის მუნიციპალიტეტი.xlsx
+++ b/municipal/ტრანსპორტი და დასაწყობება/საერთო სარგებლობის საავტომობილო გზების სიგრძე/ქვემო ქართლი/წალკის მუნიციპალიტეტი.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asalukvadze\Desktop\ბაზრები\საერთო სარგებლობის საავტომობილო გზების სიგრძე\ქვემო ქართლი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\ტრანსპორტი და დასაწყობება ქარ. EN\საერთო სარგებლობის საავტომობილო გზების სიგრძე\ქვემო ქართლი\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D75AF84-EF6E-4822-9772-58228495CB05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11655" yWindow="0" windowWidth="13530" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11655" yWindow="0" windowWidth="13530" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="წალკის მუნიციპალიტეტი" sheetId="1" r:id="rId1"/>
@@ -64,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -180,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -214,6 +213,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,19 +493,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" style="14" customWidth="1"/>
-    <col min="2" max="5" width="18.140625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="6" width="18.140625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -514,7 +514,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -523,7 +523,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6">
         <v>2017</v>
@@ -537,8 +537,11 @@
       <c r="E3" s="7">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
@@ -554,8 +557,11 @@
       <c r="E4" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
@@ -571,11 +577,14 @@
       <c r="E5" s="12">
         <v>102</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>3</v>
       </c>

--- a/municipal/ტრანსპორტი და დასაწყობება/საერთო სარგებლობის საავტომობილო გზების სიგრძე/ქვემო ქართლი/წალკის მუნიციპალიტეტი.xlsx
+++ b/municipal/ტრანსპორტი და დასაწყობება/საერთო სარგებლობის საავტომობილო გზების სიგრძე/ქვემო ქართლი/წალკის მუნიციპალიტეტი.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\ტრანსპორტი და დასაწყობება ქარ. EN\საერთო სარგებლობის საავტომობილო გზების სიგრძე\ქვემო ქართლი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fqavtaradze\Desktop\რეგიონული სტატისტიკა\საერთო სარგებლობის საავტომობილო გზების სიგრძე 2022\მუნიციპალიტეტები\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -494,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,10 +502,11 @@
   <cols>
     <col min="1" max="1" width="28.5703125" style="14" customWidth="1"/>
     <col min="2" max="6" width="18.140625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="7" width="17.42578125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -514,7 +515,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -523,7 +524,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:6" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6">
         <v>2017</v>
@@ -540,8 +541,11 @@
       <c r="F3" s="7">
         <v>2021</v>
       </c>
+      <c r="G3" s="7">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
@@ -560,8 +564,11 @@
       <c r="F4" s="15">
         <v>0</v>
       </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
@@ -580,11 +587,14 @@
       <c r="F5" s="15">
         <v>102</v>
       </c>
+      <c r="G5" s="15">
+        <v>102</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>3</v>
       </c>
